--- a/data/origin/product_origin.xlsx
+++ b/data/origin/product_origin.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyle/Repository/KOSA_mini_project1/KOSA_mini_project1/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyle/work/KOSA_mini_project1/data/origin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABFB781-F7FB-C24C-B38A-863D61F80BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A160BC1D-DF5E-034A-AE9F-1C4C60CE9982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{924B6D1C-0F7C-DA4E-95C0-D52DB869FE0C}"/>
   </bookViews>
@@ -501,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF5CFFE-1C4A-8845-920B-7BC2339C6AB3}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:I11"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -652,22 +652,22 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="3">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F7" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G7" s="3">
-        <v>219000</v>
+        <v>48700</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -675,22 +675,22 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="3">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F8" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G8" s="3">
-        <v>48700</v>
+        <v>139300</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -698,23 +698,32 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="3">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F9" s="3">
         <v>10</v>
       </c>
       <c r="G9" s="3">
-        <v>139300</v>
-      </c>
+        <v>219000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
